--- a/biology/Zoologie/Galerie_des_Cerambycidae/Galerie_des_Cerambycidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Cerambycidae/Galerie_des_Cerambycidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Cerambycidae.</t>
@@ -511,7 +523,9 @@
           <t>Acalolepta</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Acalolepta luxuriosa Kutzu Kisaku, Kuboki Mikio, 1983
@@ -543,7 +557,9 @@
           <t>Acanthocinus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Acanthocinus aedilis (Linnaeus, 1758)
@@ -575,7 +591,9 @@
           <t>Acrocinus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Acrocinus longimanus Muséum de Toulouse
@@ -607,7 +625,9 @@
           <t>Aegosoma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aegosoma scabricorne (Scopoli, 1763)
@@ -639,7 +659,9 @@
           <t>Agapanthia</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agapanthia cardui (Linné, 1767)
@@ -672,7 +694,9 @@
           <t>Alosterna</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Alosterna tabacicolor (De Geer, 1775)
@@ -704,7 +728,9 @@
           <t>Anaglyptus</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anaglyptus mysticus
@@ -736,7 +762,9 @@
           <t>Anoplodera</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anoplodera sexguttata  (Fabricius, 1775)
@@ -768,7 +796,9 @@
           <t>Anoplophora</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anoplophora glabripennis Motschulsky, 1853
@@ -801,7 +831,9 @@
           <t>Apomecyna</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Apomecyna saltator (Fabricius, 1787)
@@ -833,7 +865,9 @@
           <t>Arhopalus</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arhopalus ferus (Mulsant, 1839)
@@ -865,7 +899,9 @@
           <t>Aromia</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aromia moschata (Linnaeus, 1758)
@@ -897,7 +933,9 @@
           <t>Atiaia</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Atiaia consobrina  Muséum de Toulouse
@@ -929,7 +967,9 @@
           <t>Batocera</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Batocera lineolata Chevrolat, 1852
@@ -961,7 +1001,9 @@
           <t>Batus</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Batus barbicornis- Muséum de Toulouse
@@ -993,7 +1035,9 @@
           <t>Brachyta</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Brachyta interrogationis (Linnaeus, 1758)
@@ -1025,7 +1069,9 @@
           <t>Calamobius</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Calamobius filum (Rossi, 1790)
@@ -1057,7 +1103,9 @@
           <t>Callichroma</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callichroma auricomum - Muséum de Toulouse
@@ -1090,7 +1138,9 @@
           <t>Callidium</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callidium violaceum (Linnaeus, 1758)
@@ -1122,7 +1172,9 @@
           <t>Callimus</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callimus angulatus (Schrank, 1789)
@@ -1154,7 +1206,9 @@
           <t>Callipogon</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Callipogon cinnamomeusMuséum de Toulouse
@@ -1187,7 +1241,9 @@
           <t>Ceragenia</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ceragenia bicornis  Muséum de Toulouse
@@ -1219,7 +1275,9 @@
           <t>Cerambyx</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cerambyx cerdo (Linné, 1758)
@@ -1252,7 +1310,9 @@
           <t>Chlorida</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chlorida festiva  - Muséum de Toulouse
@@ -1284,7 +1344,9 @@
           <t>Chlorophorus</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chlorophorus trifasciatus (Fabricius, 1781)
@@ -1317,7 +1379,9 @@
           <t>Clausirion</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Clausirion comptum - Muséum de Toulouse
@@ -1349,7 +1413,9 @@
           <t>Clytus</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Clytus arietis (Linnaeus, 1758)
@@ -1382,7 +1448,9 @@
           <t>Derobrachus</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Derobrachus geminatus  LeConte, 1853
@@ -1415,7 +1483,9 @@
           <t>Dinoptera</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dinoptera collaris (Linnaeus, 1758)
@@ -1447,7 +1517,9 @@
           <t>Dubiefostola</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dubiefostola auricollis - Muséum de Toulouse
@@ -1479,7 +1551,9 @@
           <t>Ergates</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ergates faber (Ergate forgeron) (Linnaeus, 1767)
@@ -1511,7 +1585,9 @@
           <t>Gaurotes</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gaurotes virgineus (Linnaeus, 1758)
@@ -1543,7 +1619,9 @@
           <t>Gigantotrichoderes</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gigantotrichoderes conicicollis- Muséum de Toulouse
@@ -1575,7 +1653,9 @@
           <t>Hesperophanes</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hesperophanes sericeus (Fabricius, 1787)
@@ -1607,7 +1687,9 @@
           <t>Hirtobrasilianus</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hirtobrasilianus villiersi - Muséum de Toulouse
@@ -1639,7 +1721,9 @@
           <t>Hylotrupes</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Hylotrupes bajulus (Linnaeus, 1758)
@@ -1671,7 +1755,9 @@
           <t>Ialyssus</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ialyssus tuberculatus Muséum de Toulouse
@@ -1703,7 +1789,9 @@
           <t>Juiaparus</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Juiaparus batus - Muséum de Toulouse
@@ -1735,7 +1823,9 @@
           <t>Jupoata</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jupoata rufipennis - Muséum de Toulouse
@@ -1767,7 +1857,9 @@
           <t>Lagocheirus</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lagocheirus funestus (Thomson, 1865)
@@ -1799,7 +1891,9 @@
           <t>Lamia</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lamia textor (Linnaeus, 1758)
@@ -1831,7 +1925,9 @@
           <t>Leptura</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Leptura aethiops  Poda, 1761
@@ -1864,7 +1960,9 @@
           <t>Macrodontia</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Macrodontia cervicornis (Linnaeus, 1758)
@@ -1896,7 +1994,9 @@
           <t>Macropophora</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Macropophora trochlearis  Muséum de Toulouse
@@ -1928,7 +2028,9 @@
           <t>Mionochroma</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mionochroma aureotinctum- Muséum de Toulouse
@@ -1960,7 +2062,9 @@
           <t>Molorchus</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Molorchus minor (Linnaeus, 1758)
@@ -1992,7 +2096,9 @@
           <t>Moneilema</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Moneilema gigas LeConte, 1873
@@ -2024,7 +2130,9 @@
           <t>Monochamus</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Monochamus galloprovincialis  (Olivier, 1795) mâle
@@ -2060,7 +2168,9 @@
           <t>Morimus</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Morimus asper  (Sulzer, 1776)
@@ -2092,7 +2202,9 @@
           <t>Musaria</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Musaria affinis  (Harrer 1784)
@@ -2124,7 +2236,9 @@
           <t>Necydalis</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Necydalis mellita   (Say, 1835)
@@ -2156,7 +2270,9 @@
           <t>Oberea</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Oberea oculata   (Linnaeus, 1758)
@@ -2188,7 +2304,9 @@
           <t>Opsilia</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Opsilia coerulescens   (Scopoli 1763)
@@ -2220,7 +2338,9 @@
           <t>Oreodera</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Oreodera paulista   Muséum de Toulouse
@@ -2252,7 +2372,9 @@
           <t>Oxymirus</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Oxymirus cursor Linnaeus, 1758
@@ -2284,7 +2406,9 @@
           <t>Pachyta</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pachyta quadrimaculata (Linnaeus, 1758)
@@ -2316,7 +2440,9 @@
           <t>Paracorymbia</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Paracorymbia fulva (De Geer, 1775)
@@ -2349,7 +2475,9 @@
           <t>Paraglenea</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Paraglenea fortunei Saunders, 1853
@@ -2381,7 +2509,9 @@
           <t>Parandra</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Parandra brunnea (Fabricius, 1779)
@@ -2413,7 +2543,9 @@
           <t>Phymatodes</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Phymatodes testaceus (Linnaeus, 1758)
@@ -2445,7 +2577,9 @@
           <t>Phytoecia</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Phytoecia caerula (Scopoli, 1772)
@@ -2477,7 +2611,9 @@
           <t>Pidonia</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pidonia lurida (Fabricius, 1792)
@@ -2509,7 +2645,9 @@
           <t>Plocaederus</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Plocaederus bipartitus Muséum de Toulouse
@@ -2541,7 +2679,9 @@
           <t>Pogonocherus</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pogonocherus fasciculatus  (De Geer, 1775)
@@ -2574,7 +2714,9 @@
           <t>Praxithea</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Praxithea travassosi  Muséum de Toulouse
@@ -2606,7 +2748,9 @@
           <t>Prionus</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Prionus californicus Motschulsky, 1845
@@ -2638,7 +2782,9 @@
           <t>Pseudovadonia</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pseudovadonia livida (Fabricius, 1776)
@@ -2670,7 +2816,9 @@
           <t>Purpuricenus</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Purpuricenus budensis (Gotz, 1783)
@@ -2702,7 +2850,9 @@
           <t>Physopleurus</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Physopleurus crassidens  Muséum de Toulouse
@@ -2734,7 +2884,9 @@
           <t>Pyrrhidium</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pyrrhidium sanguineum (Linnaeus, 1758) Femelle
@@ -2766,7 +2918,9 @@
           <t>Rhagium</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rhagium (Hagrium) bifasciatum Fabricius, 1775
@@ -2801,7 +2955,9 @@
           <t>Rosalia</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rosalia alpina(Linnaeus, 1758)
@@ -2834,7 +2990,9 @@
           <t>Rutpela</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rutpela maculata (Poda, 1761)
@@ -2866,7 +3024,9 @@
           <t>Saperda</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Saperda carcharias (Linnaeus, 1758)
@@ -2900,7 +3060,9 @@
           <t>Saphanus</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Saphanus piceus  (Laicharting ,1784)
@@ -2932,7 +3094,9 @@
           <t>Spondylis</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Spondylis buprestoides (Linnaeus, 1758)
@@ -2964,7 +3128,9 @@
           <t>Stenelytrana</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Stenelytrana emarginata (Fabricius, 1787)
@@ -2996,7 +3162,9 @@
           <t>Stenopterus</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Stenopterus rufus (Linnaeus, 1767)
@@ -3028,7 +3196,9 @@
           <t>Stenurella</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Stenurella melanura (Linnaeus, 1758)
@@ -3060,7 +3230,9 @@
           <t>Stictoleptura</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Stictoleptura cordigera (Fuessly, 1775)
@@ -3095,7 +3267,9 @@
           <t>Tetraopes</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tetraopes tetrophthalmus (Forster, ????)
@@ -3127,7 +3301,9 @@
           <t>Titanus</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Titanus giganteus (Linnaeus, 1771)
@@ -3161,7 +3337,9 @@
           <t>Trichoferus</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Trichoferus pallidus
@@ -3193,7 +3371,9 @@
           <t>Tylosis</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tylosis maculatus  LeConte, 1850
@@ -3225,7 +3405,9 @@
           <t>Vesperus</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vesperus strepens (Fabricius, 1792)
@@ -3257,7 +3439,9 @@
           <t>Xylotrechus</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Xylotrechus rusticus (Linnaeus, 1758)
